--- a/ai/assets/textbook/grammar/20200706.xlsx
+++ b/ai/assets/textbook/grammar/20200706.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\grammar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B394C-4092-432E-A8A4-3B32F3BAFEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C13FBB-C471-45FA-958F-CC0E5295F038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19500" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21825" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$A$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$A$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="166">
   <si>
     <t>发言内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,9 +38,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>?43?4?</t>
-  </si>
-  <si>
     <t>{11}  NNNN BBBB CC{11}</t>
   </si>
   <si>
@@ -242,18 +239,9 @@
     <t>{74}CCCC KKKK PP{74}</t>
   </si>
   <si>
-    <t>{74}卩 卩 634卩 卩{74} 卫是的</t>
-  </si>
-  <si>
-    <t>{75}{75}{75}{75}卩 卩 456卩 卩 {75}{75}</t>
-  </si>
-  <si>
     <t>{76}{12}Why red nice</t>
   </si>
   <si>
-    <t>{76}{76}{76}{76}卩卩234卩卩{76}{76}</t>
-  </si>
-  <si>
     <t>{76}CCCC KKKK PP{76}</t>
   </si>
   <si>
@@ -344,45 +332,12 @@
     <t>{92}Tvip vipvip{92}{92}</t>
   </si>
   <si>
-    <t>{viplv0}{dt0-10-5-24}我的是287</t>
-  </si>
-  <si>
-    <t>{viplv0}{dt0-10-5-24}我的是359</t>
-  </si>
-  <si>
-    <t>{viplv2}{dt1-10-5-23}7－－99</t>
-  </si>
-  <si>
-    <t>{viplv2}{dt1-10-5-23}9－－77</t>
-  </si>
-  <si>
-    <t>{viplv2}{dt1-10-5-24})7－－66</t>
-  </si>
-  <si>
     <t>{viplv5}{dt0-10-8-29}liueryiqi</t>
   </si>
   <si>
-    <t>{viplv6}{dt1-10-5-8}197</t>
-  </si>
-  <si>
-    <t>{viplv6}{dt1-10-5-8}前面Yxc</t>
-  </si>
-  <si>
     <t>341 515联着来躺好</t>
   </si>
   <si>
-    <t>353连上</t>
-  </si>
-  <si>
-    <t>442福利</t>
-  </si>
-  <si>
-    <t>4久36</t>
-  </si>
-  <si>
-    <t>718连起来</t>
-  </si>
-  <si>
     <t>BBBB MMMM YY</t>
   </si>
   <si>
@@ -413,9 +368,6 @@
     <t>duiduiduip</t>
   </si>
   <si>
-    <t>fen</t>
-  </si>
-  <si>
     <t>fennice</t>
   </si>
   <si>
@@ -569,40 +521,13 @@
     <t>YYYY BBBB KK</t>
   </si>
   <si>
-    <t>上分了啊442</t>
-  </si>
-  <si>
-    <t>上分的442</t>
-  </si>
-  <si>
     <t>公主yesyesyesX</t>
   </si>
   <si>
     <t>打的{65}kunkunkun X{65}</t>
   </si>
   <si>
-    <t>后 756</t>
-  </si>
-  <si>
-    <t>在353连上</t>
-  </si>
-  <si>
-    <t>在连上353啊</t>
-  </si>
-  <si>
-    <t>在连上的353</t>
-  </si>
-  <si>
     <t>这个{65}BBBB FFFF YY{65}</t>
-  </si>
-  <si>
-    <t>起飞车442的</t>
-  </si>
-  <si>
-    <t>就是982啊</t>
-  </si>
-  <si>
-    <t>幑  864</t>
   </si>
 </sst>
 </file>
@@ -652,16 +577,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -964,32 +886,32 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>353</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>722</v>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>772</v>
+      <c r="A4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>839</v>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -997,7 +919,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1005,7 +927,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1013,7 +935,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1021,7 +943,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1029,7 +951,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1037,7 +959,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1045,7 +967,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1053,7 +975,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1061,7 +983,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1069,7 +991,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1077,7 +999,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1085,7 +1007,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1093,7 +1015,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1101,7 +1023,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1109,7 +1031,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1117,7 +1039,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1125,7 +1047,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1133,7 +1055,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1141,7 +1063,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1149,7 +1071,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1157,7 +1079,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1165,7 +1087,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1173,7 +1095,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1181,7 +1103,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1189,7 +1111,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1197,7 +1119,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1205,7 +1127,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1213,7 +1135,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1221,7 +1143,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1229,7 +1151,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1237,7 +1159,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1245,7 +1167,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1253,7 +1175,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1261,7 +1183,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1269,7 +1191,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1277,7 +1199,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1285,7 +1207,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1293,7 +1215,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1301,7 +1223,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1309,7 +1231,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1317,7 +1239,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1325,7 +1247,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1333,7 +1255,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1341,7 +1263,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1349,7 +1271,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1357,7 +1279,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1365,7 +1287,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1373,7 +1295,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1381,7 +1303,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1389,7 +1311,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1397,7 +1319,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1405,7 +1327,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1413,7 +1335,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1421,7 +1343,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1429,7 +1351,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1437,7 +1359,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1445,7 +1367,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1453,7 +1375,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1461,7 +1383,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1469,7 +1391,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1477,7 +1399,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1485,7 +1407,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1493,7 +1415,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1501,7 +1423,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1509,7 +1431,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1517,7 +1439,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1525,7 +1447,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1533,7 +1455,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1541,7 +1463,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1549,7 +1471,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1557,7 +1479,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1565,7 +1487,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1573,7 +1495,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1581,7 +1503,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1589,7 +1511,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1597,7 +1519,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1605,7 +1527,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1613,7 +1535,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1621,7 +1543,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1629,7 +1551,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1637,7 +1559,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1645,7 +1567,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1653,7 +1575,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1661,7 +1583,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1669,7 +1591,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1677,7 +1599,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1685,7 +1607,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1693,7 +1615,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1701,7 +1623,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1709,7 +1631,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1717,7 +1639,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1725,7 +1647,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1733,7 +1655,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1741,7 +1663,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1749,7 +1671,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1757,7 +1679,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1765,7 +1687,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1773,7 +1695,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1781,7 +1703,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1789,7 +1711,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1797,7 +1719,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1805,7 +1727,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1813,7 +1735,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1821,7 +1743,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1829,7 +1751,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1837,7 +1759,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1845,7 +1767,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1853,7 +1775,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1861,7 +1783,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1869,7 +1791,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1877,7 +1799,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1885,7 +1807,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1893,7 +1815,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1901,7 +1823,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1909,7 +1831,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1917,7 +1839,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1925,7 +1847,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1933,7 +1855,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1941,15 +1863,15 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>114</v>
+      <c r="A125" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -1957,7 +1879,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1965,7 +1887,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1973,7 +1895,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1981,7 +1903,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1989,167 +1911,167 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>120</v>
+      <c r="A131" t="s">
+        <v>124</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>121</v>
+      <c r="A132" t="s">
+        <v>125</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>122</v>
+      <c r="A133" t="s">
+        <v>126</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>123</v>
+      <c r="A134" t="s">
+        <v>127</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>124</v>
+      <c r="A135" t="s">
+        <v>128</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>125</v>
+      <c r="A136" t="s">
+        <v>129</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>126</v>
+      <c r="A137" t="s">
+        <v>130</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>127</v>
+      <c r="A138" t="s">
+        <v>131</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>128</v>
+      <c r="A139" t="s">
+        <v>132</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>129</v>
+      <c r="A140" t="s">
+        <v>133</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>130</v>
+      <c r="A141" t="s">
+        <v>134</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>131</v>
+      <c r="A142" t="s">
+        <v>134</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>132</v>
+      <c r="A143" t="s">
+        <v>135</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>133</v>
+      <c r="A144" t="s">
+        <v>136</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>134</v>
+      <c r="A145" t="s">
+        <v>137</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>135</v>
+      <c r="A146" t="s">
+        <v>138</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>136</v>
+      <c r="A147" t="s">
+        <v>139</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>137</v>
+      <c r="A148" t="s">
+        <v>140</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>138</v>
+      <c r="A149" t="s">
+        <v>141</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>139</v>
+      <c r="A150" t="s">
+        <v>142</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -2157,7 +2079,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -2165,7 +2087,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -2173,7 +2095,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -2181,7 +2103,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -2189,7 +2111,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -2197,7 +2119,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2205,7 +2127,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -2213,7 +2135,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -2221,7 +2143,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2229,7 +2151,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -2237,7 +2159,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -2245,7 +2167,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -2253,7 +2175,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -2261,7 +2183,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -2269,7 +2191,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -2277,7 +2199,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -2285,7 +2207,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -2293,7 +2215,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -2301,7 +2223,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -2309,7 +2231,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -2317,7 +2239,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -2325,7 +2247,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -2333,7 +2255,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -2341,7 +2263,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -2349,250 +2271,14 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>164</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>165</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>166</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>166</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>167</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>168</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>169</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>170</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>171</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>172</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>173</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>173</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>174</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>175</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>176</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>177</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>178</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>179</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>180</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>181</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>182</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>183</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>184</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>185</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>186</v>
-      </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>187</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>188</v>
-      </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>189</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>190</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A52" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A1">
-      <sortCondition ref="A1:A52"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:A47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
